--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1753.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1753.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6777583550616965</v>
+        <v>0.370794266462326</v>
       </c>
       <c r="B1">
-        <v>1.281926181842523</v>
+        <v>-1</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>1.309438705444336</v>
       </c>
       <c r="E1">
-        <v>1.609237944533202</v>
+        <v>0.8343638777732849</v>
       </c>
     </row>
   </sheetData>
